--- a/po_analysis_by_asin/B0CPQ8V6LM_po_data.xlsx
+++ b/po_analysis_by_asin/B0CPQ8V6LM_po_data.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>45</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>3</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45313</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>18</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45397</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>72</v>
@@ -515,7 +515,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45322.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>66</v>
@@ -523,7 +523,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45383</v>
+        <v>45412.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>72</v>

--- a/po_analysis_by_asin/B0CPQ8V6LM_po_data.xlsx
+++ b/po_analysis_by_asin/B0CPQ8V6LM_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -509,7 +510,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -527,6 +528,215 @@
       </c>
       <c r="B3" t="n">
         <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>19</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-4.164392399777802</v>
+      </c>
+      <c r="D2" t="n">
+        <v>40.32069488573143</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>22</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4399833164654967</v>
+      </c>
+      <c r="D3" t="n">
+        <v>43.67047654123253</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>29</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5.823884891260069</v>
+      </c>
+      <c r="D4" t="n">
+        <v>50.59189044148275</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>68</v>
+      </c>
+      <c r="C5" t="n">
+        <v>47.07692214385161</v>
+      </c>
+      <c r="D5" t="n">
+        <v>88.58454371000538</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>72</v>
+      </c>
+      <c r="C6" t="n">
+        <v>48.83364112988922</v>
+      </c>
+      <c r="D6" t="n">
+        <v>93.05175808614764</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>75</v>
+      </c>
+      <c r="C7" t="n">
+        <v>53.30408655126044</v>
+      </c>
+      <c r="D7" t="n">
+        <v>95.59624138490462</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>78</v>
+      </c>
+      <c r="C8" t="n">
+        <v>56.5210685368905</v>
+      </c>
+      <c r="D8" t="n">
+        <v>100.0395858648231</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>82</v>
+      </c>
+      <c r="C9" t="n">
+        <v>61.10912256998255</v>
+      </c>
+      <c r="D9" t="n">
+        <v>101.9789224492561</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>85</v>
+      </c>
+      <c r="C10" t="n">
+        <v>65.56994553806356</v>
+      </c>
+      <c r="D10" t="n">
+        <v>104.6630497294613</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>88</v>
+      </c>
+      <c r="C11" t="n">
+        <v>66.35698798442081</v>
+      </c>
+      <c r="D11" t="n">
+        <v>109.8677678672912</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>92</v>
+      </c>
+      <c r="C12" t="n">
+        <v>69.26228840073243</v>
+      </c>
+      <c r="D12" t="n">
+        <v>113.5146341948395</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>95</v>
+      </c>
+      <c r="C13" t="n">
+        <v>72.34526352142696</v>
+      </c>
+      <c r="D13" t="n">
+        <v>116.0217487060317</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CPQ8V6LM_po_data.xlsx
+++ b/po_analysis_by_asin/B0CPQ8V6LM_po_data.xlsx
@@ -541,7 +541,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,16 +560,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -578,12 +568,6 @@
       <c r="B2" t="n">
         <v>19</v>
       </c>
-      <c r="C2" t="n">
-        <v>-4.164392399777802</v>
-      </c>
-      <c r="D2" t="n">
-        <v>40.32069488573143</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -592,12 +576,6 @@
       <c r="B3" t="n">
         <v>22</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.4399833164654967</v>
-      </c>
-      <c r="D3" t="n">
-        <v>43.67047654123253</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -606,12 +584,6 @@
       <c r="B4" t="n">
         <v>29</v>
       </c>
-      <c r="C4" t="n">
-        <v>5.823884891260069</v>
-      </c>
-      <c r="D4" t="n">
-        <v>50.59189044148275</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -620,12 +592,6 @@
       <c r="B5" t="n">
         <v>68</v>
       </c>
-      <c r="C5" t="n">
-        <v>47.07692214385161</v>
-      </c>
-      <c r="D5" t="n">
-        <v>88.58454371000538</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -634,12 +600,6 @@
       <c r="B6" t="n">
         <v>72</v>
       </c>
-      <c r="C6" t="n">
-        <v>48.83364112988922</v>
-      </c>
-      <c r="D6" t="n">
-        <v>93.05175808614764</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -648,12 +608,6 @@
       <c r="B7" t="n">
         <v>75</v>
       </c>
-      <c r="C7" t="n">
-        <v>53.30408655126044</v>
-      </c>
-      <c r="D7" t="n">
-        <v>95.59624138490462</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -662,12 +616,6 @@
       <c r="B8" t="n">
         <v>78</v>
       </c>
-      <c r="C8" t="n">
-        <v>56.5210685368905</v>
-      </c>
-      <c r="D8" t="n">
-        <v>100.0395858648231</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -676,12 +624,6 @@
       <c r="B9" t="n">
         <v>82</v>
       </c>
-      <c r="C9" t="n">
-        <v>61.10912256998255</v>
-      </c>
-      <c r="D9" t="n">
-        <v>101.9789224492561</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -690,12 +632,6 @@
       <c r="B10" t="n">
         <v>85</v>
       </c>
-      <c r="C10" t="n">
-        <v>65.56994553806356</v>
-      </c>
-      <c r="D10" t="n">
-        <v>104.6630497294613</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -704,12 +640,6 @@
       <c r="B11" t="n">
         <v>88</v>
       </c>
-      <c r="C11" t="n">
-        <v>66.35698798442081</v>
-      </c>
-      <c r="D11" t="n">
-        <v>109.8677678672912</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -718,12 +648,6 @@
       <c r="B12" t="n">
         <v>92</v>
       </c>
-      <c r="C12" t="n">
-        <v>69.26228840073243</v>
-      </c>
-      <c r="D12" t="n">
-        <v>113.5146341948395</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -731,12 +655,6 @@
       </c>
       <c r="B13" t="n">
         <v>95</v>
-      </c>
-      <c r="C13" t="n">
-        <v>72.34526352142696</v>
-      </c>
-      <c r="D13" t="n">
-        <v>116.0217487060317</v>
       </c>
     </row>
   </sheetData>
